--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,187 +46,196 @@
     <t>returned</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>husband</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>rice</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>bread</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>make</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>one</t>
   </si>
   <si>
     <t>time</t>
@@ -593,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3565891472868217</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -680,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -704,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -712,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3131313131313131</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -730,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -754,21 +763,45 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.1567567567567568</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>156</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>0.921875</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,21 +813,21 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8840579710144928</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>561</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>561</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,21 +839,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8560371517027864</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L7">
-        <v>553</v>
+        <v>58</v>
       </c>
       <c r="M7">
-        <v>553</v>
+        <v>58</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,21 +865,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -858,21 +891,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -884,21 +917,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7142857142857143</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L10">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="M10">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -910,21 +943,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.688135593220339</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L11">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -936,21 +969,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6753246753246753</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L12">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="M12">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -962,21 +995,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6712328767123288</v>
+        <v>0.6623376623376623</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -988,21 +1021,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6666666666666666</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1014,21 +1047,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6420545746388443</v>
+        <v>0.6308186195826645</v>
       </c>
       <c r="L15">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="M15">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1040,21 +1073,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6176470588235294</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1066,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6122448979591837</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1092,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6056338028169014</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1123,16 +1156,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.59375</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1144,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5857142857142857</v>
+        <v>0.578125</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1170,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5769230769230769</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L21">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1196,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5694444444444444</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1222,47 +1255,47 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23">
+        <v>0.5571428571428572</v>
+      </c>
+      <c r="L23">
+        <v>39</v>
+      </c>
+      <c r="M23">
+        <v>39</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>31</v>
-      </c>
-      <c r="K23">
-        <v>0.5657142857142857</v>
-      </c>
-      <c r="L23">
-        <v>99</v>
-      </c>
-      <c r="M23">
-        <v>99</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5614035087719298</v>
+        <v>0.5542857142857143</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1274,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5538461538461539</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1300,21 +1333,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5396825396825397</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1326,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5384615384615384</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L27">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M27">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1352,47 +1385,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="L28">
+        <v>40</v>
+      </c>
+      <c r="M28">
+        <v>40</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>36</v>
-      </c>
-      <c r="K28">
-        <v>0.5089820359281437</v>
-      </c>
-      <c r="L28">
-        <v>85</v>
-      </c>
-      <c r="M28">
-        <v>85</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1404,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.4923076923076923</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1430,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.4918032786885246</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1456,21 +1489,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.4819277108433735</v>
+        <v>0.48</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1482,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.4691358024691358</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1508,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.46</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="L34">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1534,21 +1567,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.4156626506024096</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L35">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="M35">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1560,12 +1593,12 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>0.4078947368421053</v>
@@ -1591,16 +1624,16 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.3684210526315789</v>
+        <v>0.3872549019607843</v>
       </c>
       <c r="L37">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="M37">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1612,21 +1645,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>84</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.3657587548638132</v>
+        <v>0.3795180722891566</v>
       </c>
       <c r="L38">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="M38">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1638,21 +1671,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>163</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.3513513513513514</v>
+        <v>0.3657587548638132</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="M39">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1664,21 +1697,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>72</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.3455882352941176</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L40">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1690,21 +1723,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>267</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.326027397260274</v>
+        <v>0.3123287671232877</v>
       </c>
       <c r="L41">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="M41">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1716,21 +1749,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.316546762589928</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L42">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M42">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1742,21 +1775,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.271523178807947</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="L43">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M43">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1768,21 +1801,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>110</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.2706766917293233</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M44">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1794,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.2685185185185185</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1820,21 +1853,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.2612612612612613</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1846,21 +1879,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>82</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.2535885167464115</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L47">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1872,21 +1905,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>156</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.2282023681377826</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="L48">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M48">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1895,24 +1928,24 @@
         <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.2100313479623825</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L49">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="M49">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1924,21 +1957,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>252</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.2</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L50">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M50">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1950,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1946308724832215</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1976,99 +2009,99 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K52">
-        <v>0.1829268292682927</v>
+        <v>0.1843790012804097</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>134</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K53">
-        <v>0.1713554987212276</v>
+        <v>0.1810810810810811</v>
       </c>
       <c r="L53">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="M53">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>648</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K54">
-        <v>0.1702702702702703</v>
+        <v>0.1773399014778325</v>
       </c>
       <c r="L54">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="M54">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="N54">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>307</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K55">
-        <v>0.1512915129151292</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="L55">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M55">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2080,21 +2113,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>230</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K56">
-        <v>0.1295454545454545</v>
+        <v>0.1512915129151292</v>
       </c>
       <c r="L56">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M56">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2106,21 +2139,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>383</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K57">
-        <v>0.1271929824561404</v>
+        <v>0.1340909090909091</v>
       </c>
       <c r="L57">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M57">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2132,47 +2165,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1196172248803828</v>
+        <v>0.1265206812652068</v>
       </c>
       <c r="L58">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M58">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K59">
-        <v>0.1143552311435523</v>
+        <v>0.1217183770883055</v>
       </c>
       <c r="L59">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M59">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2184,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1065292096219931</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L60">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M60">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2210,47 +2243,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>260</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K61">
-        <v>0.08464849354375897</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="L61">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M61">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="N61">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>638</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K62">
-        <v>0.07835820895522388</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L62">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="M62">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2262,59 +2295,111 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>988</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K63">
-        <v>0.05350553505535055</v>
+        <v>0.07102803738317758</v>
       </c>
       <c r="L63">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="M63">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>513</v>
+        <v>994</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K64">
-        <v>0.05194805194805195</v>
+        <v>0.07040229885057471</v>
       </c>
       <c r="L64">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M64">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N64">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O64">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1095</v>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65">
+        <v>0.05535055350553506</v>
+      </c>
+      <c r="L65">
+        <v>30</v>
+      </c>
+      <c r="M65">
+        <v>30</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K66">
+        <v>0.04423243712055507</v>
+      </c>
+      <c r="L66">
+        <v>51</v>
+      </c>
+      <c r="M66">
+        <v>55</v>
+      </c>
+      <c r="N66">
+        <v>0.93</v>
+      </c>
+      <c r="O66">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
